--- a/HTML-Email-Sender/DemoExcelFile.xlsx
+++ b/HTML-Email-Sender/DemoExcelFile.xlsx
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,109 +199,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -328,36 +232,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1507,48 +1381,6 @@
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display="dc6707914@gmail.com"/>
